--- a/Canada_Demographic.xlsx
+++ b/Canada_Demographic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
@@ -117,7 +117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,6 +167,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -180,7 +191,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="60">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -205,6 +216,17 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -558,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -586,7 +608,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -595,12 +617,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>34005274</v>
+        <v>32242364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -609,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="3">
-        <v>16847961</v>
+        <v>15978534</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -619,7 +641,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -628,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>17157313</v>
+        <v>16263830</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
@@ -637,9 +659,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16" customHeight="1">
       <c r="A5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -648,18 +670,12 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>13897585</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+        <v>13303011</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -668,18 +684,12 @@
         <v>11</v>
       </c>
       <c r="D6" s="3">
-        <v>7392801</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <v>7106499</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -688,18 +698,12 @@
         <v>12</v>
       </c>
       <c r="D7" s="3">
-        <v>6504784</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+        <v>6196512</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -708,18 +712,12 @@
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>12913554</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+        <v>12473818</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -728,18 +726,12 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>6473979</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+        <v>6242217</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -748,18 +740,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <v>6439575</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+        <v>6231601</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -768,18 +754,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>774547</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+        <v>712065</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -788,18 +768,12 @@
         <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>346993</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+        <v>329754</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -808,18 +782,12 @@
         <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>427554</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+        <v>382311</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -828,18 +796,12 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3129416</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+        <v>2746928</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -848,18 +810,12 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1600085</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+        <v>1398949</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -868,18 +824,12 @@
         <v>12</v>
       </c>
       <c r="D16" s="3">
-        <v>1529331</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1347979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -888,18 +838,12 @@
         <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>1570766</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1507186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -908,18 +852,12 @@
         <v>11</v>
       </c>
       <c r="D18" s="3">
-        <v>304267</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14">
+        <v>275740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -928,18 +866,12 @@
         <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>1266499</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1231446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -948,18 +880,12 @@
         <v>10</v>
       </c>
       <c r="D20" s="3">
-        <v>1719406</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1499356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -968,18 +894,12 @@
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>729836</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
+        <v>625375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -988,18 +908,12 @@
         <v>12</v>
       </c>
       <c r="D22" s="3">
-        <v>989570</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14">
+        <v>873981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1008,18 +922,12 @@
         <v>10</v>
       </c>
       <c r="D23" s="3">
-        <v>34342780</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14">
+        <v>32570505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1028,12 +936,12 @@
         <v>11</v>
       </c>
       <c r="D24" s="3">
-        <v>17015959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>16144446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1042,12 +950,12 @@
         <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>17326821</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>16426059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1056,12 +964,12 @@
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>14008323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>13405838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1070,12 +978,12 @@
         <v>11</v>
       </c>
       <c r="D27" s="3">
-        <v>7446612</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>7163736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1084,12 +992,12 @@
         <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>6561711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>6242102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1098,12 +1006,12 @@
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>13000131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>12557136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1112,12 +1020,12 @@
         <v>11</v>
       </c>
       <c r="D30" s="3">
-        <v>6520600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>6283331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1126,12 +1034,12 @@
         <v>12</v>
       </c>
       <c r="D31" s="3">
-        <v>6479531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>6273805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1140,12 +1048,12 @@
         <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>787668</v>
+        <v>718960</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1154,12 +1062,12 @@
         <v>11</v>
       </c>
       <c r="D33" s="3">
-        <v>350914</v>
+        <v>332317</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1168,12 +1076,12 @@
         <v>12</v>
       </c>
       <c r="D34" s="3">
-        <v>436754</v>
+        <v>386643</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1182,12 +1090,12 @@
         <v>10</v>
       </c>
       <c r="D35" s="3">
-        <v>3194015</v>
+        <v>2840404</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1196,12 +1104,12 @@
         <v>11</v>
       </c>
       <c r="D36" s="3">
-        <v>1634450</v>
+        <v>1447100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1210,12 +1118,12 @@
         <v>12</v>
       </c>
       <c r="D37" s="3">
-        <v>1559565</v>
+        <v>1393304</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1224,12 +1132,12 @@
         <v>10</v>
       </c>
       <c r="D38" s="3">
-        <v>1588669</v>
+        <v>1513584</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1238,12 +1146,12 @@
         <v>11</v>
       </c>
       <c r="D39" s="3">
-        <v>312018</v>
+        <v>277769</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1252,12 +1160,12 @@
         <v>12</v>
       </c>
       <c r="D40" s="3">
-        <v>1276651</v>
+        <v>1235815</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -1266,12 +1174,12 @@
         <v>10</v>
       </c>
       <c r="D41" s="3">
-        <v>1763974</v>
+        <v>1534583</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -1280,12 +1188,12 @@
         <v>11</v>
       </c>
       <c r="D42" s="3">
-        <v>751365</v>
+        <v>640193</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -1294,12 +1202,12 @@
         <v>12</v>
       </c>
       <c r="D43" s="3">
-        <v>1012609</v>
+        <v>894390</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1308,12 +1216,12 @@
         <v>10</v>
       </c>
       <c r="D44" s="3">
-        <v>34752128</v>
+        <v>32887928</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1322,12 +1230,12 @@
         <v>11</v>
       </c>
       <c r="D45" s="3">
-        <v>17225435</v>
+        <v>16298320</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1336,12 +1244,12 @@
         <v>12</v>
       </c>
       <c r="D46" s="3">
-        <v>17526693</v>
+        <v>16589608</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -1350,12 +1258,12 @@
         <v>10</v>
       </c>
       <c r="D47" s="3">
-        <v>14082329</v>
+        <v>13501175</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -1364,12 +1272,12 @@
         <v>11</v>
       </c>
       <c r="D48" s="3">
-        <v>7491198</v>
+        <v>7204880</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -1378,12 +1286,12 @@
         <v>12</v>
       </c>
       <c r="D49" s="3">
-        <v>6591131</v>
+        <v>6296295</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1392,12 +1300,12 @@
         <v>10</v>
       </c>
       <c r="D50" s="3">
-        <v>13215857</v>
+        <v>12642483</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1406,12 +1314,12 @@
         <v>11</v>
       </c>
       <c r="D51" s="3">
-        <v>6637764</v>
+        <v>6330106</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1420,12 +1328,12 @@
         <v>12</v>
       </c>
       <c r="D52" s="3">
-        <v>6578093</v>
+        <v>6312377</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1434,12 +1342,12 @@
         <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>797392</v>
+        <v>731835</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1448,12 +1356,12 @@
         <v>11</v>
       </c>
       <c r="D54" s="3">
-        <v>355776</v>
+        <v>335516</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1462,12 +1370,12 @@
         <v>12</v>
       </c>
       <c r="D55" s="3">
-        <v>441616</v>
+        <v>396319</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -1476,12 +1384,12 @@
         <v>10</v>
       </c>
       <c r="D56" s="3">
-        <v>3226691</v>
+        <v>2906784</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -1490,12 +1398,12 @@
         <v>11</v>
       </c>
       <c r="D57" s="3">
-        <v>1652643</v>
+        <v>1482343</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -1504,12 +1412,12 @@
         <v>12</v>
       </c>
       <c r="D58" s="3">
-        <v>1574048</v>
+        <v>1424441</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -1518,12 +1426,12 @@
         <v>10</v>
       </c>
       <c r="D59" s="3">
-        <v>1636019</v>
+        <v>1526956</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -1532,12 +1440,12 @@
         <v>11</v>
       </c>
       <c r="D60" s="3">
-        <v>323992</v>
+        <v>283926</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -1546,12 +1454,12 @@
         <v>12</v>
       </c>
       <c r="D61" s="3">
-        <v>1312027</v>
+        <v>1243030</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -1560,12 +1468,12 @@
         <v>10</v>
       </c>
       <c r="D62" s="3">
-        <v>1793840</v>
+        <v>1578695</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
@@ -1574,12 +1482,12 @@
         <v>11</v>
       </c>
       <c r="D63" s="3">
-        <v>764062</v>
+        <v>661549</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
@@ -1588,12 +1496,12 @@
         <v>12</v>
       </c>
       <c r="D64" s="3">
-        <v>1029778</v>
+        <v>917146</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1602,12 +1510,12 @@
         <v>10</v>
       </c>
       <c r="D65" s="3">
-        <v>35154279</v>
+        <v>33245773</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -1616,12 +1524,12 @@
         <v>11</v>
       </c>
       <c r="D66" s="3">
-        <v>17430227</v>
+        <v>16473545</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -1630,12 +1538,12 @@
         <v>12</v>
       </c>
       <c r="D67" s="3">
-        <v>17724052</v>
+        <v>16772228</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1644,12 +1552,12 @@
         <v>10</v>
       </c>
       <c r="D68" s="3">
-        <v>14145262</v>
+        <v>13620504</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1658,12 +1566,12 @@
         <v>11</v>
       </c>
       <c r="D69" s="3">
-        <v>7529170</v>
+        <v>7259032</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -1672,12 +1580,12 @@
         <v>12</v>
       </c>
       <c r="D70" s="3">
-        <v>6616092</v>
+        <v>6361472</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -1686,12 +1594,12 @@
         <v>10</v>
       </c>
       <c r="D71" s="3">
-        <v>13436190</v>
+        <v>12736076</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -1700,12 +1608,12 @@
         <v>11</v>
       </c>
       <c r="D72" s="3">
-        <v>6757895</v>
+        <v>6380855</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -1714,12 +1622,12 @@
         <v>12</v>
       </c>
       <c r="D73" s="3">
-        <v>6678295</v>
+        <v>6355221</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -1728,12 +1636,12 @@
         <v>10</v>
       </c>
       <c r="D74" s="3">
-        <v>807096</v>
+        <v>745746</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -1742,12 +1650,12 @@
         <v>11</v>
       </c>
       <c r="D75" s="3">
-        <v>360662</v>
+        <v>339204</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1756,12 +1664,12 @@
         <v>12</v>
       </c>
       <c r="D76" s="3">
-        <v>446434</v>
+        <v>406542</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -1770,12 +1678,12 @@
         <v>10</v>
       </c>
       <c r="D77" s="3">
-        <v>3257010</v>
+        <v>2977986</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -1784,12 +1692,12 @@
         <v>11</v>
       </c>
       <c r="D78" s="3">
-        <v>1669660</v>
+        <v>1520163</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -1798,12 +1706,12 @@
         <v>12</v>
       </c>
       <c r="D79" s="3">
-        <v>1587350</v>
+        <v>1457823</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -1812,12 +1720,12 @@
         <v>10</v>
       </c>
       <c r="D80" s="3">
-        <v>1685126</v>
+        <v>1540802</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -1826,12 +1734,12 @@
         <v>11</v>
       </c>
       <c r="D81" s="3">
-        <v>336314</v>
+        <v>290434</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -1840,12 +1748,12 @@
         <v>12</v>
       </c>
       <c r="D82" s="3">
-        <v>1348812</v>
+        <v>1250368</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -1854,12 +1762,12 @@
         <v>10</v>
       </c>
       <c r="D83" s="3">
-        <v>1823595</v>
+        <v>1624659</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
@@ -1868,12 +1776,12 @@
         <v>11</v>
       </c>
       <c r="D84" s="3">
-        <v>776526</v>
+        <v>683857</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -1882,12 +1790,12 @@
         <v>12</v>
       </c>
       <c r="D85" s="3">
-        <v>1047069</v>
+        <v>940802</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1896,12 +1804,12 @@
         <v>10</v>
       </c>
       <c r="D86" s="3">
-        <v>35540419</v>
+        <v>33628571</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -1910,12 +1818,12 @@
         <v>11</v>
       </c>
       <c r="D87" s="3">
-        <v>17624990</v>
+        <v>16663222</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1924,12 +1832,12 @@
         <v>12</v>
       </c>
       <c r="D88" s="3">
-        <v>17915429</v>
+        <v>16965349</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -1938,12 +1846,12 @@
         <v>10</v>
       </c>
       <c r="D89" s="3">
-        <v>14207235</v>
+        <v>13758562</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -1952,12 +1860,12 @@
         <v>11</v>
       </c>
       <c r="D90" s="3">
-        <v>7565914</v>
+        <v>7325800</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -1966,12 +1874,12 @@
         <v>12</v>
       </c>
       <c r="D91" s="3">
-        <v>6641321</v>
+        <v>6432762</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -1980,12 +1888,12 @@
         <v>10</v>
       </c>
       <c r="D92" s="3">
-        <v>13646600</v>
+        <v>12829268</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -1994,12 +1902,12 @@
         <v>11</v>
       </c>
       <c r="D93" s="3">
-        <v>6872175</v>
+        <v>6430178</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2008,12 +1916,12 @@
         <v>12</v>
       </c>
       <c r="D94" s="3">
-        <v>6774425</v>
+        <v>6399090</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2022,12 +1930,12 @@
         <v>10</v>
       </c>
       <c r="D95" s="3">
-        <v>816103</v>
+        <v>760124</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2036,12 +1944,12 @@
         <v>11</v>
       </c>
       <c r="D96" s="3">
-        <v>365079</v>
+        <v>343081</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2050,12 +1958,12 @@
         <v>12</v>
       </c>
       <c r="D97" s="3">
-        <v>451024</v>
+        <v>417043</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
@@ -2064,12 +1972,12 @@
         <v>10</v>
       </c>
       <c r="D98" s="3">
-        <v>3284828</v>
+        <v>3053739</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
@@ -2078,12 +1986,12 @@
         <v>11</v>
       </c>
       <c r="D99" s="3">
-        <v>1685284</v>
+        <v>1560331</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
@@ -2092,12 +2000,12 @@
         <v>12</v>
       </c>
       <c r="D100" s="3">
-        <v>1599544</v>
+        <v>1493408</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -2106,12 +2014,12 @@
         <v>10</v>
       </c>
       <c r="D101" s="3">
-        <v>1734614</v>
+        <v>1555197</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -2120,12 +2028,12 @@
         <v>11</v>
       </c>
       <c r="D102" s="3">
-        <v>348740</v>
+        <v>297142</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -2134,12 +2042,12 @@
         <v>12</v>
       </c>
       <c r="D103" s="3">
-        <v>1385874</v>
+        <v>1258055</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
@@ -2148,12 +2056,12 @@
         <v>10</v>
       </c>
       <c r="D104" s="3">
-        <v>1851039</v>
+        <v>1671681</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B105" t="s">
         <v>9</v>
@@ -2162,12 +2070,12 @@
         <v>11</v>
       </c>
       <c r="D105" s="3">
-        <v>787798</v>
+        <v>706690</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
@@ -2176,6 +2084,1476 @@
         <v>12</v>
       </c>
       <c r="D106" s="3">
+        <v>964991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>2010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3">
+        <v>34005274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>2010</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3">
+        <v>16847961</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>2010</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3">
+        <v>17157313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>2010</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="3">
+        <v>13897585</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>2010</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="3">
+        <v>7392801</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>2010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="3">
+        <v>6504784</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>2010</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="3">
+        <v>12913554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>2010</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="3">
+        <v>6473979</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>2010</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="3">
+        <v>6439575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>2010</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="3">
+        <v>774547</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>2010</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="3">
+        <v>346993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>2010</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="3">
+        <v>427554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>2010</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3129416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>2010</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1600085</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>2010</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1529331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1570766</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>2010</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="3">
+        <v>304267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>2010</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1266499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>2010</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1719406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>2010</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="3">
+        <v>729836</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>2010</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="3">
+        <v>989570</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>2011</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="3">
+        <v>34342780</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>2011</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="3">
+        <v>17015959</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>2011</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="3">
+        <v>17326821</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>2011</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="3">
+        <v>14008323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>2011</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="3">
+        <v>7446612</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>2011</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="3">
+        <v>6561711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>2011</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="3">
+        <v>13000131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>2011</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="3">
+        <v>6520600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>2011</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="3">
+        <v>6479531</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>2011</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="3">
+        <v>787668</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>2011</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="3">
+        <v>350914</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>2011</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="3">
+        <v>436754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>2011</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="3">
+        <v>3194015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>2011</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1634450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>2011</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1559565</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>2011</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1588669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>2011</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="3">
+        <v>312018</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>2011</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1276651</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>2011</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1763974</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>2011</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3">
+        <v>751365</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>2011</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1012609</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>2012</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="3">
+        <v>34752128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>2012</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="3">
+        <v>17225435</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>2012</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="3">
+        <v>17526693</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>2012</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="3">
+        <v>14082329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>2012</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="3">
+        <v>7491198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>2012</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="3">
+        <v>6591131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>2012</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="3">
+        <v>13215857</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>2012</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="3">
+        <v>6637764</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>2012</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="3">
+        <v>6578093</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>2012</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="3">
+        <v>797392</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>2012</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="3">
+        <v>355776</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>2012</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="3">
+        <v>441616</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>2012</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="3">
+        <v>3226691</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>2012</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1652643</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>2012</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1574048</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>2012</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1636019</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>2012</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="3">
+        <v>323992</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>2012</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1312027</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>2012</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1793840</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>2012</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="3">
+        <v>764062</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>2012</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1029778</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>2013</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="3">
+        <v>35154279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>2013</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="3">
+        <v>17430227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>2013</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="3">
+        <v>17724052</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>2013</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="3">
+        <v>14145262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>2013</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="3">
+        <v>7529170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>2013</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="3">
+        <v>6616092</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>2013</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="3">
+        <v>13436190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>2013</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="3">
+        <v>6757895</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>2013</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="3">
+        <v>6678295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>2013</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="3">
+        <v>807096</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>2013</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="3">
+        <v>360662</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>2013</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="3">
+        <v>446434</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>2013</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="3">
+        <v>3257010</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>2013</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1669660</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>2013</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1587350</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>2013</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1685126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>2013</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="3">
+        <v>336314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>2013</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1348812</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>2013</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1823595</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>2013</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="3">
+        <v>776526</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>2013</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1047069</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>2014</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="3">
+        <v>35540419</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>2014</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="3">
+        <v>17624990</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>2014</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="3">
+        <v>17915429</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>2014</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="3">
+        <v>14207235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>2014</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="3">
+        <v>7565914</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>2014</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="3">
+        <v>6641321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>2014</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="3">
+        <v>13646600</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>2014</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="3">
+        <v>6872175</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>2014</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="3">
+        <v>6774425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>2014</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="3">
+        <v>816103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>2014</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="3">
+        <v>365079</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>2014</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="3">
+        <v>451024</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>2014</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="3">
+        <v>3284828</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>2014</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1685284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>2014</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="3">
+        <v>1599544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>2014</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1734614</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>2014</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="3">
+        <v>348740</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>2014</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="3">
+        <v>1385874</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>2014</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="3">
+        <v>1851039</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>2014</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="3">
+        <v>787798</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>2014</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="3">
         <v>1063241</v>
       </c>
     </row>
